--- a/medicine/Psychotrope/Aloxe-corton_(AOC)/Aloxe-corton_(AOC).xlsx
+++ b/medicine/Psychotrope/Aloxe-corton_(AOC)/Aloxe-corton_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’aloxe-corton[5],[6] (/alɔs.kɔʁtɔ̃/)[7] est un vin français d'appellation d'origine contrôlée, produit dans une large partie des communes d'Aloxe-Corton, de Ladoix-Serrigny et de Pernand-Vergelesses, en Côte-d'Or.
+L’aloxe-corton, (/alɔs.kɔʁtɔ̃/) est un vin français d'appellation d'origine contrôlée, produit dans une large partie des communes d'Aloxe-Corton, de Ladoix-Serrigny et de Pernand-Vergelesses, en Côte-d'Or.
 Il est classé parmi les appellations communales du vignoble de la côte de Beaune.
 </t>
         </is>
@@ -515,21 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-L’édit de l'empereur romain Domitien, en 92, interdisait la plantation de nouvelles vignes hors d’Italie ; il fit arracher partiellement les vignes en Gaule afin d’éviter la concurrence. Le vignoble résultant suffisait aux besoins locaux[8]. Mais Probus annula cet édit en 280[9]. En 312, un disciple d'Eumène[10] rédigea la première description du vignoble de la Côte d'Or[11].
-Moyen Âge
-Dès le début du VIe siècle, l’implantation du christianisme avait favorisé l’extension de la vigne par la création d’importants domaines rattachés aux abbayes. Ainsi l'abbaye de Cîteaux (créée en 1098) avec des plantations en Côte-d'Or[12]. En l'an 1395, Philippe le Hardi décida d’améliorer la qualité des vins et interdit la culture du gamay au profit du pinot noir dans ses terres[12]. Enfin en 1416, Charles VI fixa par un édit les limites de production du vin de Bourgogne[13]. A la mort de Charles le Téméraire, le vignoble de Bourgogne fut rattaché à la France, sous le règne de Louis XI.
-Période moderne
-Aussi, en 1700, l'intendant Ferrand rédigea-t-il un Mémoire pour l'instruction du duc de Bourgogne lui indiquant que dans cette province les vins les meilleurs provenaient des « vignobles [qui] approchent de Nuits et de Beaune »[14].
-Période contemporaine
-XIXe siècle
-Dans les décennies 1830-1840, la pyrale survint et attaqua les feuilles de la vigne. Elle fut suivie d'une maladie cryptogamique, l'oïdium[15]. Le millésime 1865 a donné des vins aux teneurs naturelles en sucres très élevées et des vendanges assez précoces[16]. À la fin de ce siècle arrivèrent deux nouveaux fléaux de la vigne. Le premier fut le mildiou, autre maladie cryptogamique, le second le phylloxéra. Cet insecte hémiptère venu d'Amérique mit très fortement à mal le vignoble[15]. Après de longues recherches, on finit par découvrir que seul le greffage permettrait à la vigne de pousser en présence du phylloxéra.
-XXe siècle
-Le mildiou provoqua un désastre considérable en 1910.
-Henri Gouges avait rejoint au niveau national le combat mené par le sénateur Joseph Capus et le baron Pierre Le Roy de Boiseaumarié qui allait aboutir à la création des appellations d'origine contrôlée. Il devint le bras droit du baron à l'INAO[17]. Ainsi cette appellation est créée par le décret du 11 mars 1938[18].
-Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique puis pneumatique, enjambeur qui remplace le cheval dans les années 1960-70...).
-XXIe siècle
-Avec la canicule de 2003, les vendanges débutèrent pour certains domaines cette année-là à la mi-août, soit avec un mois d'avance, des vendanges très précoces qui ne s'étaient pas vues depuis 1422 et 1865 d'après les archives[16].
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édit de l'empereur romain Domitien, en 92, interdisait la plantation de nouvelles vignes hors d’Italie ; il fit arracher partiellement les vignes en Gaule afin d’éviter la concurrence. Le vignoble résultant suffisait aux besoins locaux. Mais Probus annula cet édit en 280. En 312, un disciple d'Eumène rédigea la première description du vignoble de la Côte d'Or.
 </t>
         </is>
       </c>
@@ -555,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aloxe (prononcer « Alosse »[19]) est l'ancien nom du village, tandis que Corton est le nom de la colline (appelée le « coteau de Corton ») dont les pentes produisent les meilleurs crus de la commune (appellations corton, corton-charlemagne et charlemagne).
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le début du VIe siècle, l’implantation du christianisme avait favorisé l’extension de la vigne par la création d’importants domaines rattachés aux abbayes. Ainsi l'abbaye de Cîteaux (créée en 1098) avec des plantations en Côte-d'Or. En l'an 1395, Philippe le Hardi décida d’améliorer la qualité des vins et interdit la culture du gamay au profit du pinot noir dans ses terres. Enfin en 1416, Charles VI fixa par un édit les limites de production du vin de Bourgogne. A la mort de Charles le Téméraire, le vignoble de Bourgogne fut rattaché à la France, sous le règne de Louis XI.
 </t>
         </is>
       </c>
@@ -586,18 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire d'appellation de l'aloxe-corton se situe en Bourgogne, dans le département de la Côte-d'Or, sur les communes limitrophes d'Aloxe-Corton, de Ladoix-Serrigny et de Pernand-Vergelesses, juste au nord de Beaune.
-Géologie et orographie
-L'aire de production est situé entre 200 et 300 mètres d'altitude ; les sols sont brun rougeâtre avec beaucoup de rognons siliceux et des débris de calcaires à silex. Sols caillouteux, sols argileux et marneux selon les endroits[20].
-Climatologie
-C'est un climat tempéré à légère tendance continentale.
-Pour la ville de Dijon (316 mètres), les valeurs climatiques jusqu'à 1990 :
-Source : Infoclimat : Dijon (????-1990)[21]
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aussi, en 1700, l'intendant Ferrand rédigea-t-il un Mémoire pour l'instruction du duc de Bourgogne lui indiquant que dans cette province les vins les meilleurs provenaient des « vignobles [qui] approchent de Nuits et de Beaune ».
 </t>
         </is>
       </c>
@@ -623,16 +633,323 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les décennies 1830-1840, la pyrale survint et attaqua les feuilles de la vigne. Elle fut suivie d'une maladie cryptogamique, l'oïdium. Le millésime 1865 a donné des vins aux teneurs naturelles en sucres très élevées et des vendanges assez précoces. À la fin de ce siècle arrivèrent deux nouveaux fléaux de la vigne. Le premier fut le mildiou, autre maladie cryptogamique, le second le phylloxéra. Cet insecte hémiptère venu d'Amérique mit très fortement à mal le vignoble. Après de longues recherches, on finit par découvrir que seul le greffage permettrait à la vigne de pousser en présence du phylloxéra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mildiou provoqua un désastre considérable en 1910.
+Henri Gouges avait rejoint au niveau national le combat mené par le sénateur Joseph Capus et le baron Pierre Le Roy de Boiseaumarié qui allait aboutir à la création des appellations d'origine contrôlée. Il devint le bras droit du baron à l'INAO. Ainsi cette appellation est créée par le décret du 11 mars 1938.
+Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique puis pneumatique, enjambeur qui remplace le cheval dans les années 1960-70...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la canicule de 2003, les vendanges débutèrent pour certains domaines cette année-là à la mi-août, soit avec un mois d'avance, des vendanges très précoces qui ne s'étaient pas vues depuis 1422 et 1865 d'après les archives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aloxe (prononcer « Alosse ») est l'ancien nom du village, tandis que Corton est le nom de la colline (appelée le « coteau de Corton ») dont les pentes produisent les meilleurs crus de la commune (appellations corton, corton-charlemagne et charlemagne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire d'appellation de l'aloxe-corton se situe en Bourgogne, dans le département de la Côte-d'Or, sur les communes limitrophes d'Aloxe-Corton, de Ladoix-Serrigny et de Pernand-Vergelesses, juste au nord de Beaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de production est situé entre 200 et 300 mètres d'altitude ; les sols sont brun rougeâtre avec beaucoup de rognons siliceux et des débris de calcaires à silex. Sols caillouteux, sols argileux et marneux selon les endroits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un climat tempéré à légère tendance continentale.
+Pour la ville de Dijon (316 mètres), les valeurs climatiques jusqu'à 1990 :
+Source : Infoclimat : Dijon (????-1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Situé sur les villages d'Aloxe-Corton, de Ladoix-Serrigny et de Pernand-Vergelesses, il s'étend sur une surface de 122 hectares[22], presque exclusivement en vins rouges (pinot noir) : 116,08 hectares produisant des rouges dont 37,60 hectares en premier cru[18]. L'infime superficie de blancs (chardonnay) recouvre 1,7 hectare[18].
-En volume la production de cette appellation donne 4 991 hectolitres de vins rouges (dont 1 513 hectolitres de premier cru) et 63 hectolitres de vins blancs[18].
-Climats
-Sont classés comme premiers crus les climats suivants[4] :
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé sur les villages d'Aloxe-Corton, de Ladoix-Serrigny et de Pernand-Vergelesses, il s'étend sur une surface de 122 hectares, presque exclusivement en vins rouges (pinot noir) : 116,08 hectares produisant des rouges dont 37,60 hectares en premier cru. L'infime superficie de blancs (chardonnay) recouvre 1,7 hectare.
+En volume la production de cette appellation donne 4 991 hectolitres de vins rouges (dont 1 513 hectolitres de premier cru) et 63 hectolitres de vins blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Climats</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sont classés comme premiers crus les climats suivants :
 sur Aloxe-Corton :
 Les Valozières ;
 Les Paulands ;
@@ -649,95 +966,470 @@
 Les Petites Folières ;
 Les Moutottes ;
 La Coutière ;
-La Toppe au Vert.
-Encépagement
-Les cépages autorisés sont en blanc le chardonnay B, le pinot blanc B et accessoirement le pinot gris G ; en rouge c'est le pinot noir N, avec accessoirement le chardonnay B, le pinot blanc B et le pinot gris G[4].
-Le pinot noir compose exclusivement les vins rouges de l'AOC. Il est constitué de petites grappes denses, en forme de cône de pin[23] composées de grains ovoïdes, de couleur bleu sombre[23]. C'est un cépage délicat, qui est sensible aux principales maladies et en particulier au mildiou, au rougeot parasitaire, à la pourriture grise (sur grappes et sur feuilles), et aux cicadelles[24]. Ce cépage, qui nécessite des ébourgeonnages soignés, a tendance à produire un nombre important de grapillons[24]. Il profite pleinement du cycle végétatif pour mûrir en première époque. Le potentiel d'accumulation des sucres est élevé pour une acidité juste moyenne et parfois insuffisante à maturité. Les vins sont assez puissants, riches, colorés, de garde[25]. Ils sont moyennement tanniques en général.
-Le chardonnay, lui, compose les vins blancs de l'AOC. Ses grappes sont relativement petites, cylindriques, moins denses que celles du pinot noir[26], constituées de grains irréguliers, assez petits, de couleur jaune doré[26]. De maturation de première époque comme le pinot noir, il s'accommode mieux d'une humidité de fin de saison avec une meilleure résistance à la pourriture s'il n'est pas en situation de forte vigueur. Il est sensible à l'oïdium et à la flavescence dorée. Il débourre un peu avant le pinot noir, ce qui le rend également sensible aux gelées printanières. Les teneurs en sucre des baies peuvent atteindre des niveaux élevés tout en conservant une acidité importante, ce qui permet d'obtenir des vins particulièrement bien équilibrés, puissants et amples, avec beaucoup de gras et de volume[24].
-Méthodes culturales
-Travail manuel
-Ce travail commence par la taille, en « guyot simple », avec une baguette de cinq à huit yeux et un courson de un à trois yeux[27]. Le tirage des sarments suit la taille. Les sarments sont enlevés et peuvent être brûlés ou mis au milieu du rang pour être broyés. On passe ensuite aux réparations. Puis vient le pliage des baguettes. Éventuellement, après le pliage des baguettes, une plantation de nouvelles greffes est réalisée. L'ébourgeonnage peut débuter dès que la vigne a commencé à pousser. Cette méthode permet, en partie, de réguler les rendements[27]. Le relevage est pratiqué lorsque la vigne commence à avoir bien poussé. En général, deux à trois relevages sont pratiqués. La vendange en vert est pratiquée de plus en plus dans cette appellation. Cette opération est faite dans le but de réguler les rendements et surtout d'augmenter la qualité des raisins restants[27]. Pour finir avec le travail manuel à la vigne, se réalise l'étape importante des vendanges.
-Travail mécanique
-L'enjambeur est d'une aide précieuse. Les différents travaux se composent du broyage des sarments, réalisé lorsque les sarments sont tirés et mis au milieu du rang. De trou fait à la tarière, là où les pieds de vignes sont manquants, en vue de planter des greffes au printemps. De labourage ou griffage, réalisé dans le but d'aérer les sols et de supprimer des mauvaises herbes. De désherbage fait chimiquement pour tuer les mauvaises herbes. De plusieurs traitements des vignes, réalisés dans le but de les protéger contre certaines maladies cryptogamiques (mildiou, oïdium, pourriture grise, etc.) et certains insectes (eudémis et cochylis)[27]. De plusieurs rognages consistant à reciper ou couper les branches de vignes (rameaux) qui dépassent du système de palissage. Des vendanges mécaniques se réalisant avec une machine à vendanger ou une tête de récolte montée sur un enjambeur.
-Rendements
-Les rendements sont de l'ordre de 40 hectolitres par hectare pour les vins rouges et 45 hectolitres par hectare pour les vins blancs[28]. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aloxe-corton_(AOC)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+La Toppe au Vert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages autorisés sont en blanc le chardonnay B, le pinot blanc B et accessoirement le pinot gris G ; en rouge c'est le pinot noir N, avec accessoirement le chardonnay B, le pinot blanc B et le pinot gris G.
+Le pinot noir compose exclusivement les vins rouges de l'AOC. Il est constitué de petites grappes denses, en forme de cône de pin composées de grains ovoïdes, de couleur bleu sombre. C'est un cépage délicat, qui est sensible aux principales maladies et en particulier au mildiou, au rougeot parasitaire, à la pourriture grise (sur grappes et sur feuilles), et aux cicadelles. Ce cépage, qui nécessite des ébourgeonnages soignés, a tendance à produire un nombre important de grapillons. Il profite pleinement du cycle végétatif pour mûrir en première époque. Le potentiel d'accumulation des sucres est élevé pour une acidité juste moyenne et parfois insuffisante à maturité. Les vins sont assez puissants, riches, colorés, de garde. Ils sont moyennement tanniques en général.
+Le chardonnay, lui, compose les vins blancs de l'AOC. Ses grappes sont relativement petites, cylindriques, moins denses que celles du pinot noir, constituées de grains irréguliers, assez petits, de couleur jaune doré. De maturation de première époque comme le pinot noir, il s'accommode mieux d'une humidité de fin de saison avec une meilleure résistance à la pourriture s'il n'est pas en situation de forte vigueur. Il est sensible à l'oïdium et à la flavescence dorée. Il débourre un peu avant le pinot noir, ce qui le rend également sensible aux gelées printanières. Les teneurs en sucre des baies peuvent atteindre des niveaux élevés tout en conservant une acidité importante, ce qui permet d'obtenir des vins particulièrement bien équilibrés, puissants et amples, avec beaucoup de gras et de volume.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Travail manuel</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce travail commence par la taille, en « guyot simple », avec une baguette de cinq à huit yeux et un courson de un à trois yeux. Le tirage des sarments suit la taille. Les sarments sont enlevés et peuvent être brûlés ou mis au milieu du rang pour être broyés. On passe ensuite aux réparations. Puis vient le pliage des baguettes. Éventuellement, après le pliage des baguettes, une plantation de nouvelles greffes est réalisée. L'ébourgeonnage peut débuter dès que la vigne a commencé à pousser. Cette méthode permet, en partie, de réguler les rendements. Le relevage est pratiqué lorsque la vigne commence à avoir bien poussé. En général, deux à trois relevages sont pratiqués. La vendange en vert est pratiquée de plus en plus dans cette appellation. Cette opération est faite dans le but de réguler les rendements et surtout d'augmenter la qualité des raisins restants. Pour finir avec le travail manuel à la vigne, se réalise l'étape importante des vendanges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Travail mécanique</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enjambeur est d'une aide précieuse. Les différents travaux se composent du broyage des sarments, réalisé lorsque les sarments sont tirés et mis au milieu du rang. De trou fait à la tarière, là où les pieds de vignes sont manquants, en vue de planter des greffes au printemps. De labourage ou griffage, réalisé dans le but d'aérer les sols et de supprimer des mauvaises herbes. De désherbage fait chimiquement pour tuer les mauvaises herbes. De plusieurs traitements des vignes, réalisés dans le but de les protéger contre certaines maladies cryptogamiques (mildiou, oïdium, pourriture grise, etc.) et certains insectes (eudémis et cochylis). De plusieurs rognages consistant à reciper ou couper les branches de vignes (rameaux) qui dépassent du système de palissage. Des vendanges mécaniques se réalisant avec une machine à vendanger ou une tête de récolte montée sur un enjambeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rendements sont de l'ordre de 40 hectolitres par hectare pour les vins rouges et 45 hectolitres par hectare pour les vins blancs. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titres alcoométriques volumique minimal et maximal
-Vinification et élevage
-Voici les méthodes générales de vinification de cette appellation. Il existe cependant des petites différences de méthode entre les différents viticulteurs et négociants.
-Vinification en rouge
-La récolte des raisins se fait à maturité et de façon manuelle ou mécanique. La vendange manuelle est le plus souvent triée, soit à la vigne soit à la cave avec une table de tri, ce qui permet d'enlever les grappes pourries ou insuffisamment mûres[27]. La vendange manuelle est généralement éraflée puis mise en cuve. Une macération pré-fermentaire à froid est quelquefois pratiquée. La fermentation alcoolique peut démarrer, le plus souvent après un levurage. Commence alors le travail d'extraction des polyphénols (tanins, anthocyanes) et autres éléments qualitatifs du raisin (polysaccharides etc.)[27]. L'extraction se faisait par pigeage, opération qui consiste à enfoncer le chapeau de marc dans le jus en fermentation à l'aide d'un outil en bois ou aujourd'hui d'un robot pigeur hydraulique. Plus couramment, l'extraction est conduite par des remontages, opération qui consiste à pomper le jus depuis le bas de la cuve pour arroser le chapeau de marc et ainsi lessiver les composants qualitatifs du raisin. Les températures de fermentation alcoolique peuvent être plus ou moins élevées suivant les pratiques de chaque vinificateur avec une moyenne générale de 28 à 35 degrés au maximum de la fermentation[27]. La chaptalisation est réalisée si le degré naturel est insuffisant : cette pratique est réglementée[27]. À l'issue de la fermentation alcoolique suit l'opération de décuvage qui donne le vin de goutte et le vin de presse. La fermentation malolactique se déroule après mais est dépendante de la température. Le vin est soutiré et mis en fût ou cuve pour son élevage. L'élevage se poursuit pendant plusieurs mois (12 à 24 mois)[27] puis le vin est collé, filtré et mis en bouteilles.
-Vinification en blanc
-Comme pour le rouge, la récolte est manuelle ou mécanique et peut être triée. Les raisins sont ensuite transférés dans un pressoir pour le pressurage. Une fois le moût en cuve, le débourbage est pratiqué généralement après un enzymage. À ce stade, une stabulation préfermentaire à froid (environ 10 à 12 degrés pendant plusieurs jours) peut être recherchée pour favoriser l'extraction des arômes[27]. Mais le plus souvent, après 12 à 48 heures, le jus clair est soutiré et mis à fermenter[27]. La fermentation alcoolique se déroule avec un suivi tout particulier pour les températures qui doivent rester à peu près stables (18 à 24 degrés)[27]. La chaptalisation est aussi pratiquée pour augmenter le titre alcoométrique volumique si nécessaire. La fermentation malolactique est réalisée en fûts ou en cuves. Les vins sont élevés « sur lies », en fûts, dans lesquels le vinificateur réalise régulièrement un « bâtonnage », c'est-à-dire une remise en suspension des lies[27]. Cette opération dure pendant plusieurs mois au cours de l'élevage des blancs. À la fin, la filtration du vin est pratiquée pour rendre les vins plus limpides[27]. La mise en bouteille clôture l'opération.
-Terroir et vins
-Les vins d'Aloxe-Corton ont une robe assez foncée par rapport aux appellations voisines, de couleur rubis soutenue ou grenat ; le nez et la bouche sont le plus souvent marqués par les fruits rouges et noirs, robuste et structuré.
-Gastronomie, garde et température de service
-À servir entre 15 et 17 degrés. Se garde entre 5 et 15 ans maximum.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Aloxe-corton_(AOC)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques volumique minimal et maximal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici les méthodes générales de vinification de cette appellation. Il existe cependant des petites différences de méthode entre les différents viticulteurs et négociants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Vinification en rouge</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte des raisins se fait à maturité et de façon manuelle ou mécanique. La vendange manuelle est le plus souvent triée, soit à la vigne soit à la cave avec une table de tri, ce qui permet d'enlever les grappes pourries ou insuffisamment mûres. La vendange manuelle est généralement éraflée puis mise en cuve. Une macération pré-fermentaire à froid est quelquefois pratiquée. La fermentation alcoolique peut démarrer, le plus souvent après un levurage. Commence alors le travail d'extraction des polyphénols (tanins, anthocyanes) et autres éléments qualitatifs du raisin (polysaccharides etc.). L'extraction se faisait par pigeage, opération qui consiste à enfoncer le chapeau de marc dans le jus en fermentation à l'aide d'un outil en bois ou aujourd'hui d'un robot pigeur hydraulique. Plus couramment, l'extraction est conduite par des remontages, opération qui consiste à pomper le jus depuis le bas de la cuve pour arroser le chapeau de marc et ainsi lessiver les composants qualitatifs du raisin. Les températures de fermentation alcoolique peuvent être plus ou moins élevées suivant les pratiques de chaque vinificateur avec une moyenne générale de 28 à 35 degrés au maximum de la fermentation. La chaptalisation est réalisée si le degré naturel est insuffisant : cette pratique est réglementée. À l'issue de la fermentation alcoolique suit l'opération de décuvage qui donne le vin de goutte et le vin de presse. La fermentation malolactique se déroule après mais est dépendante de la température. Le vin est soutiré et mis en fût ou cuve pour son élevage. L'élevage se poursuit pendant plusieurs mois (12 à 24 mois) puis le vin est collé, filtré et mis en bouteilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Vinification en blanc</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour le rouge, la récolte est manuelle ou mécanique et peut être triée. Les raisins sont ensuite transférés dans un pressoir pour le pressurage. Une fois le moût en cuve, le débourbage est pratiqué généralement après un enzymage. À ce stade, une stabulation préfermentaire à froid (environ 10 à 12 degrés pendant plusieurs jours) peut être recherchée pour favoriser l'extraction des arômes. Mais le plus souvent, après 12 à 48 heures, le jus clair est soutiré et mis à fermenter. La fermentation alcoolique se déroule avec un suivi tout particulier pour les températures qui doivent rester à peu près stables (18 à 24 degrés). La chaptalisation est aussi pratiquée pour augmenter le titre alcoométrique volumique si nécessaire. La fermentation malolactique est réalisée en fûts ou en cuves. Les vins sont élevés « sur lies », en fûts, dans lesquels le vinificateur réalise régulièrement un « bâtonnage », c'est-à-dire une remise en suspension des lies. Cette opération dure pendant plusieurs mois au cours de l'élevage des blancs. À la fin, la filtration du vin est pratiquée pour rendre les vins plus limpides. La mise en bouteille clôture l'opération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins d'Aloxe-Corton ont une robe assez foncée par rapport aux appellations voisines, de couleur rubis soutenue ou grenat ; le nez et la bouche sont le plus souvent marqués par les fruits rouges et noirs, robuste et structuré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gastronomie, garde et température de service</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À servir entre 15 et 17 degrés. Se garde entre 5 et 15 ans maximum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Structure des exploitations
-Il existe des domaines de tailles différentes. Ces domaines mettent tout ou une partie de leurs propres vins en bouteilles et s'occupent aussi de le vendre. Les autres, ainsi que ceux qui ne vendent pas tous leurs vins en bouteilles, les vendent aux maisons de négoce.
-Les maisons de négoce achètent leurs vins, en général, en vin fait (vin fini) mais parfois en raisin ou en moût[29]. Elles achètent aux domaines et passent par un courtier en vin qui sert d'intermédiaire moyennant une commission de l'ordre de 2 % à la charge de l'acheteur.
-Commercialisation
-La commercialisation de cette appellation se fait par divers canaux de vente : dans les caveaux du viticulteur, dans les salons des vins (vignerons indépendants, etc.), dans les foires gastronomiques, par exportation, dans les Cafés-Hôtels-Restaurants (C.H.R), dans les grandes et moyennes surfaces (G.M.S).
-Les producteurs de l'appellation</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des domaines de tailles différentes. Ces domaines mettent tout ou une partie de leurs propres vins en bouteilles et s'occupent aussi de le vendre. Les autres, ainsi que ceux qui ne vendent pas tous leurs vins en bouteilles, les vendent aux maisons de négoce.
+Les maisons de négoce achètent leurs vins, en général, en vin fait (vin fini) mais parfois en raisin ou en moût. Elles achètent aux domaines et passent par un courtier en vin qui sert d'intermédiaire moyennant une commission de l'ordre de 2 % à la charge de l'acheteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloxe-corton_(AOC)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commercialisation de cette appellation se fait par divers canaux de vente : dans les caveaux du viticulteur, dans les salons des vins (vignerons indépendants, etc.), dans les foires gastronomiques, par exportation, dans les Cafés-Hôtels-Restaurants (C.H.R), dans les grandes et moyennes surfaces (G.M.S).
+</t>
         </is>
       </c>
     </row>
